--- a/Excel/Mingguan/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
+++ b/Excel/Mingguan/List Tugas Minggu Ke-5 (23 Agustus 2021 - 29 Agustus 2021).xlsx
@@ -790,7 +790,11 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr"/>
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1" s="1">
       <c r="A29" s="3" t="n">
@@ -860,7 +864,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr"/>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1" s="1">
       <c r="A35" s="3" t="n">
